--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27540" windowHeight="13725"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>产品名</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>LoadingTitle_04</t>
+  </si>
+  <si>
+    <t>成语赚多多</t>
+  </si>
+  <si>
+    <t>com.ciyunjinchan.cyzdda</t>
   </si>
 </sst>
 </file>
@@ -123,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,6 +157,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,14 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,24 +200,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +222,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -219,7 +239,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -258,23 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,25 +308,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +368,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,55 +410,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,67 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +493,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,6 +520,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -516,15 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,15 +585,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -598,7 +604,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,13 +1104,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
@@ -1264,6 +1270,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>产品名</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>com.ciyunjinchan.cyzdda</t>
+  </si>
+  <si>
+    <t>icon_cyzdd</t>
   </si>
 </sst>
 </file>
@@ -129,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,6 +152,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -157,6 +207,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -164,7 +252,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,121 +295,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,79 +305,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,103 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,11 +499,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,15 +558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,38 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1110,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1270,7 +1273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1279,6 +1282,9 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="30375" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>产品名</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>com.ciyunjinchan.bxdyjx</t>
+  </si>
+  <si>
+    <t>wx9016768c8f632e0c</t>
   </si>
   <si>
     <t>icon_bxdyjx</t>
@@ -129,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,6 +160,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,6 +175,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,74 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -278,9 +267,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,19 +311,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,37 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,115 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,15 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,6 +525,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +579,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -604,7 +607,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,137 +616,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +758,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1107,7 +1113,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1240,14 +1246,17 @@
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1255,19 +1264,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1275,10 +1284,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -118,10 +118,10 @@
     <t>LoadingTitle_04</t>
   </si>
   <si>
-    <t>成语赚多多</t>
-  </si>
-  <si>
-    <t>com.ciyunjinchan.cyzdda</t>
+    <t>闹剧之王</t>
+  </si>
+  <si>
+    <t>com.ciyunjinchan.njzw</t>
   </si>
 </sst>
 </file>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,21 +150,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,74 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -254,9 +256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,24 +279,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,13 +302,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,49 +440,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,103 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,9 +513,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,15 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,6 +548,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,11 +587,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>产品名</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>com.ciyunjinchan.cyzdda</t>
+  </si>
+  <si>
+    <t>wx4bd13a08b94ab598</t>
   </si>
   <si>
     <t>icon_cyzdd</t>
@@ -132,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -152,9 +155,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +223,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -176,6 +261,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -184,40 +276,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,74 +296,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,31 +308,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,151 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +502,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,32 +516,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,19 +555,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1113,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1283,8 +1286,11 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>产品名</t>
   </si>
   <si>
+    <t>产品英文名(用于七牛下载区分)</t>
+  </si>
+  <si>
     <t>包名</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>ProductName</t>
   </si>
   <si>
+    <t>ProductEnName</t>
+  </si>
+  <si>
     <t>PackageName</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>人生大赢家</t>
   </si>
   <si>
+    <t>LifeWinnerGold</t>
+  </si>
+  <si>
     <t>com.ciyunjinchan.rsdyjzj</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
   </si>
   <si>
     <t>成语赚多多</t>
+  </si>
+  <si>
+    <t>idiomsGame</t>
   </si>
   <si>
     <t>com.ciyunjinchan.cyzdda</t>
@@ -130,8 +142,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -150,12 +162,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -163,8 +204,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,74 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -256,7 +276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,16 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,55 +314,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +458,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,115 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,11 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,22 +566,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1115,16 +1127,18 @@
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="31" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="str">
         <f>"["&amp;ROW(B2)&amp;";"&amp;COLUMN(B2)&amp;"]"</f>
         <v>[2;2]</v>
@@ -1142,7 +1156,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1151,134 +1165,155 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="2:9">
+    <row r="5" ht="14.25" spans="2:10">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -19,54 +19,54 @@
     <t>产品名</t>
   </si>
   <si>
+    <t>包名</t>
+  </si>
+  <si>
+    <t>AppId</t>
+  </si>
+  <si>
+    <t>图标路径</t>
+  </si>
+  <si>
+    <t>加载界面图</t>
+  </si>
+  <si>
+    <t>显示图标</t>
+  </si>
+  <si>
+    <t>标题图片显示</t>
+  </si>
+  <si>
     <t>产品英文名(用于七牛下载区分)</t>
   </si>
   <si>
-    <t>包名</t>
-  </si>
-  <si>
-    <t>AppId</t>
-  </si>
-  <si>
-    <t>图标路径</t>
-  </si>
-  <si>
-    <t>加载界面图</t>
-  </si>
-  <si>
-    <t>显示图标</t>
-  </si>
-  <si>
-    <t>标题图片显示</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>ProductName</t>
   </si>
   <si>
+    <t>PackageName</t>
+  </si>
+  <si>
+    <t>WeChatAppID</t>
+  </si>
+  <si>
+    <t>IconPath</t>
+  </si>
+  <si>
+    <t>LoadingImage</t>
+  </si>
+  <si>
+    <t>VersionIcon</t>
+  </si>
+  <si>
+    <t>TitleImage</t>
+  </si>
+  <si>
     <t>ProductEnName</t>
   </si>
   <si>
-    <t>PackageName</t>
-  </si>
-  <si>
-    <t>WeChatAppID</t>
-  </si>
-  <si>
-    <t>IconPath</t>
-  </si>
-  <si>
-    <t>LoadingImage</t>
-  </si>
-  <si>
-    <t>VersionIcon</t>
-  </si>
-  <si>
-    <t>TitleImage</t>
-  </si>
-  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -79,24 +79,24 @@
     <t>人生大赢家</t>
   </si>
   <si>
+    <t>com.ciyunjinchan.rsdyjzj</t>
+  </si>
+  <si>
+    <t>wx082f10652f21b01f</t>
+  </si>
+  <si>
+    <t>icon_rsdyjzj</t>
+  </si>
+  <si>
+    <t>LoadingIcon_02</t>
+  </si>
+  <si>
+    <t>LoadingTitle_02</t>
+  </si>
+  <si>
     <t>LifeWinnerGold</t>
   </si>
   <si>
-    <t>com.ciyunjinchan.rsdyjzj</t>
-  </si>
-  <si>
-    <t>wx082f10652f21b01f</t>
-  </si>
-  <si>
-    <t>icon_rsdyjzj</t>
-  </si>
-  <si>
-    <t>LoadingIcon_02</t>
-  </si>
-  <si>
-    <t>LoadingTitle_02</t>
-  </si>
-  <si>
     <t>冰雪大赢家</t>
   </si>
   <si>
@@ -130,10 +130,10 @@
     <t>成语赚多多</t>
   </si>
   <si>
+    <t>com.ciyunjinchan.cyzdda</t>
+  </si>
+  <si>
     <t>idiomsGame</t>
-  </si>
-  <si>
-    <t>com.ciyunjinchan.cyzdda</t>
   </si>
 </sst>
 </file>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,21 +162,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +183,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -204,49 +228,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,10 +275,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,24 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +314,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,37 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,127 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,11 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,20 +573,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1127,15 +1127,15 @@
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1156,7 +1156,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1165,7 +1165,7 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1194,7 +1194,7 @@
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1226,7 +1226,7 @@
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1246,13 +1246,13 @@
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1263,20 +1263,20 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1286,23 +1286,23 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:10">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>产品名</t>
   </si>
@@ -22,6 +22,9 @@
     <t>包名</t>
   </si>
   <si>
+    <t>产品英文名(用于七牛下载区分)</t>
+  </si>
+  <si>
     <t>AppId</t>
   </si>
   <si>
@@ -37,9 +40,6 @@
     <t>标题图片显示</t>
   </si>
   <si>
-    <t>产品英文名(用于七牛下载区分)</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -49,6 +49,9 @@
     <t>PackageName</t>
   </si>
   <si>
+    <t>ProductEnName</t>
+  </si>
+  <si>
     <t>WeChatAppID</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>TitleImage</t>
   </si>
   <si>
-    <t>ProductEnName</t>
-  </si>
-  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -82,6 +82,9 @@
     <t>com.ciyunjinchan.rsdyjzj</t>
   </si>
   <si>
+    <t>LifeWinnerGold</t>
+  </si>
+  <si>
     <t>wx082f10652f21b01f</t>
   </si>
   <si>
@@ -94,15 +97,15 @@
     <t>LoadingTitle_02</t>
   </si>
   <si>
-    <t>LifeWinnerGold</t>
-  </si>
-  <si>
     <t>冰雪大赢家</t>
   </si>
   <si>
     <t>com.ciyunjinchan.bxdyjx</t>
   </si>
   <si>
+    <t>wx9016768c8f632e0c</t>
+  </si>
+  <si>
     <t>icon_bxdyjx</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>com.ciyunjinchan.zyxlz</t>
   </si>
   <si>
+    <t>wx2e7fa6de2bf2ab4d</t>
+  </si>
+  <si>
     <t>icon_zyxlz</t>
   </si>
   <si>
@@ -134,6 +140,12 @@
   </si>
   <si>
     <t>idiomsGame</t>
+  </si>
+  <si>
+    <t>wx4bd13a08b94ab598</t>
+  </si>
+  <si>
+    <t>icon_cyzdd</t>
   </si>
 </sst>
 </file>
@@ -141,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,7 +181,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,70 +278,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,48 +302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,13 +332,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +410,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,73 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,61 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,16 +520,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -534,15 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +579,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -573,34 +596,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -616,7 +628,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1131,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1128,12 +1140,12 @@
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="1" customWidth="1"/>
     <col min="12" max="16383" width="9" style="1"/>
   </cols>
@@ -1156,7 +1168,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1165,7 +1177,7 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1185,7 +1197,7 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1194,7 +1206,7 @@
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1217,7 +1229,7 @@
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1226,7 +1238,7 @@
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1246,13 +1258,13 @@
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1266,17 +1278,20 @@
       <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1284,36 +1299,45 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30375" windowHeight="14895"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>产品名</t>
   </si>
@@ -22,6 +22,9 @@
     <t>包名</t>
   </si>
   <si>
+    <t>产品英文名(用于七牛下载区分)</t>
+  </si>
+  <si>
     <t>AppId</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>PackageName</t>
   </si>
   <si>
+    <t>ProductEnName</t>
+  </si>
+  <si>
     <t>WeChatAppID</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>com.ciyunjinchan.rsdyjzj</t>
   </si>
   <si>
+    <t>LifeWinnerGold</t>
+  </si>
+  <si>
     <t>wx082f10652f21b01f</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>com.ciyunjinchan.zyxlz</t>
   </si>
   <si>
+    <t>wx2e7fa6de2bf2ab4d</t>
+  </si>
+  <si>
     <t>icon_zyxlz</t>
   </si>
   <si>
@@ -125,6 +137,15 @@
   </si>
   <si>
     <t>com.ciyunjinchan.cyzdda</t>
+  </si>
+  <si>
+    <t>idiomsGame</t>
+  </si>
+  <si>
+    <t>wx4bd13a08b94ab598</t>
+  </si>
+  <si>
+    <t>icon_cyzdd</t>
   </si>
 </sst>
 </file>
@@ -132,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -160,26 +181,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -191,6 +235,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,44 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -305,12 +326,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,12 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,37 +422,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,49 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,55 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +517,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,6 +579,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -561,41 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,149 +625,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1110,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1122,15 +1140,17 @@
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="31" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="1" customWidth="1"/>
+    <col min="12" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="str">
         <f>"["&amp;ROW(B2)&amp;";"&amp;COLUMN(B2)&amp;"]"</f>
         <v>[2;2]</v>
@@ -1148,7 +1168,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1157,137 +1177,167 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="2:9">
+    <row r="5" ht="14.25" spans="2:10">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="30375" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>产品名</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>com.ciyunjinchan.cyzdda</t>
+  </si>
+  <si>
+    <t>闹剧之王</t>
+  </si>
+  <si>
+    <t>com.ciyunjinchan.njzw</t>
+  </si>
+  <si>
+    <t>icon_njzw</t>
   </si>
 </sst>
 </file>
@@ -129,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,6 +166,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,6 +181,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,74 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -278,9 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,19 +317,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,37 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,115 +473,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,15 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,6 +531,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +585,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -604,7 +613,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,137 +622,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +760,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1104,13 +1119,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
@@ -1281,6 +1296,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" ht="14.25" spans="2:6">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="30375" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>产品名</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>icon_cyzdd</t>
+  </si>
+  <si>
+    <t>闹剧之王</t>
+  </si>
+  <si>
+    <t>com.ciyunjinchan.njzw</t>
+  </si>
+  <si>
+    <t>icon_njzw</t>
   </si>
 </sst>
 </file>
@@ -153,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -181,49 +190,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -235,21 +221,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +281,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -326,19 +335,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,163 +479,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,32 +526,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,15 +562,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -617,6 +591,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,149 +634,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +784,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1128,13 +1143,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
@@ -1340,6 +1355,21 @@
         <v>43</v>
       </c>
     </row>
+    <row r="8" ht="14.25" spans="2:7">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30375" windowHeight="14895"/>
+    <workbookView windowWidth="30615" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>闹剧之王</t>
   </si>
   <si>
-    <t>com.ciyunjinchan.njzw</t>
+    <t>com.ciyunjinchan.cyjcnjzw</t>
   </si>
   <si>
     <t>icon_njzw</t>
@@ -776,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1146,7 +1143,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1362,7 +1359,7 @@
       <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2"/>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -148,10 +148,10 @@
     <t>icon_cyzdd</t>
   </si>
   <si>
-    <t>闹剧之王</t>
-  </si>
-  <si>
-    <t>com.ciyunjinchan.cyjcnjzw</t>
+    <t>刷剧之王</t>
+  </si>
+  <si>
+    <t>com.ciyunjinchan.cyjcsjzw</t>
   </si>
   <si>
     <t>icon_njzw</t>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30375" windowHeight="14895"/>
+    <workbookView windowWidth="22020" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>产品名</t>
   </si>
@@ -151,7 +151,7 @@
     <t>闹剧之王</t>
   </si>
   <si>
-    <t>com.ciyunjinchan.njzw</t>
+    <t>com.ciyunjinchan.cyjcnjzw</t>
   </si>
   <si>
     <t>icon_njzw</t>
@@ -776,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1146,7 +1143,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1362,10 +1359,12 @@
       <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>46</v>
       </c>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30375" windowHeight="14895"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>冰雪大赢家</t>
   </si>
   <si>
-    <t>com.ciyunjinchan.bxdyjx</t>
+    <t>com.ciyunjinchan.bxdyjthree</t>
   </si>
   <si>
     <t>wx9016768c8f632e0c</t>
@@ -786,8 +786,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1154,7 +1154,7 @@
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.375" style="1" customWidth="1"/>

--- a/Client/Table/TableBuildApp.xlsx
+++ b/Client/Table/TableBuildApp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22020" windowHeight="16065"/>
+    <workbookView windowWidth="19860" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="TableBuildApp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>产品名</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>icon_njzw</t>
+  </si>
+  <si>
+    <t>com.ciyunjinchan.rsdyjfour</t>
+  </si>
+  <si>
+    <t>wxd52defb34b5b6f87</t>
   </si>
 </sst>
 </file>
@@ -1140,13 +1146,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
@@ -1369,6 +1375,29 @@
         <v>46</v>
       </c>
     </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
